--- a/params.xlsx
+++ b/params.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Priya Pillai\Documents\GitHub\stress_interp\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>eye_aspect_ratio</t>
   </si>
@@ -25,20 +30,35 @@
     <t>eye_height</t>
   </si>
   <si>
-    <t>face_aspect_ratio</t>
-  </si>
-  <si>
     <t>face_width</t>
   </si>
   <si>
     <t>nose_size</t>
+  </si>
+  <si>
+    <t>whisker_length</t>
+  </si>
+  <si>
+    <t>ear_length</t>
+  </si>
+  <si>
+    <t>ear_point</t>
+  </si>
+  <si>
+    <t>ear_angle</t>
+  </si>
+  <si>
+    <t>ear_tip_angle</t>
+  </si>
+  <si>
+    <t>ear_orientation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,17 +110,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -147,7 +177,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -179,9 +209,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -213,6 +244,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -388,14 +420,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -414,8 +451,23 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -423,22 +475,80 @@
         <v>1</v>
       </c>
       <c r="C2">
+        <v>80</v>
+      </c>
+      <c r="D2">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>200</v>
+      </c>
+      <c r="F2">
+        <v>16</v>
+      </c>
+      <c r="G2">
+        <v>60</v>
+      </c>
+      <c r="H2">
         <v>40</v>
       </c>
-      <c r="D2">
-        <v>6</v>
-      </c>
-      <c r="E2">
-        <v>0.75</v>
-      </c>
-      <c r="F2">
-        <v>100</v>
-      </c>
-      <c r="G2">
-        <v>8</v>
-      </c>
+      <c r="I2">
+        <v>60</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>60</v>
+      </c>
+      <c r="L2">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.5</v>
+      </c>
+      <c r="C3">
+        <v>60</v>
+      </c>
+      <c r="D3">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>180</v>
+      </c>
+      <c r="F3">
+        <v>20</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>-30</v>
+      </c>
+      <c r="I3">
+        <v>70</v>
+      </c>
+      <c r="J3" s="3">
+        <v>20</v>
+      </c>
+      <c r="K3">
+        <v>70</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G4" s="2"/>
+      <c r="I4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/params.xlsx
+++ b/params.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>eye_aspect_ratio</t>
   </si>
@@ -30,9 +30,6 @@
     <t>eye_height</t>
   </si>
   <si>
-    <t>face_width</t>
-  </si>
-  <si>
     <t>nose_size</t>
   </si>
   <si>
@@ -52,6 +49,15 @@
   </si>
   <si>
     <t>ear_orientation</t>
+  </si>
+  <si>
+    <t>fur_lightness</t>
+  </si>
+  <si>
+    <t>fur_saturation</t>
+  </si>
+  <si>
+    <t>face_aspect_ratio</t>
   </si>
 </sst>
 </file>
@@ -83,7 +89,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -106,17 +112,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,18 +439,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" customWidth="1"/>
+    <col min="9" max="9" width="21.140625" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" customWidth="1"/>
+    <col min="12" max="12" width="15.28515625" customWidth="1"/>
+    <col min="13" max="13" width="21.140625" customWidth="1"/>
+    <col min="14" max="14" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -443,33 +474,39 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -478,13 +515,14 @@
         <v>80</v>
       </c>
       <c r="D2">
-        <v>12</v>
-      </c>
-      <c r="E2">
-        <v>200</v>
+        <v>10</v>
+      </c>
+      <c r="E2" s="2">
+        <f>4/3</f>
+        <v>1.3333333333333333</v>
       </c>
       <c r="F2">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G2">
         <v>60</v>
@@ -493,7 +531,7 @@
         <v>40</v>
       </c>
       <c r="I2">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -502,24 +540,31 @@
         <v>60</v>
       </c>
       <c r="L2">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+      <c r="M2" s="2">
+        <v>80</v>
+      </c>
+      <c r="N2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D3">
-        <v>14</v>
-      </c>
-      <c r="E3">
-        <v>180</v>
+        <v>15</v>
+      </c>
+      <c r="E3" s="2">
+        <f>3/4</f>
+        <v>0.75</v>
       </c>
       <c r="F3">
         <v>20</v>
@@ -527,25 +572,237 @@
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3">
-        <v>-30</v>
-      </c>
-      <c r="I3">
-        <v>70</v>
-      </c>
-      <c r="J3" s="3">
-        <v>20</v>
+      <c r="H3" s="2">
+        <v>-60</v>
+      </c>
+      <c r="I3" s="2">
+        <v>40</v>
+      </c>
+      <c r="J3" s="2">
+        <v>100</v>
       </c>
       <c r="K3">
-        <v>70</v>
-      </c>
-      <c r="L3" s="3">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G4" s="2"/>
-      <c r="I4" s="2"/>
+        <v>120</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="M3">
+        <v>80</v>
+      </c>
+      <c r="N3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="J6" s="2"/>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="J8" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="J9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="J11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="J13" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="J14" s="2"/>
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="J16" s="2"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="J18" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="J19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="J21" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="J23" s="2"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="J24" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="J26" s="2"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="J28" s="2"/>
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="J29" s="2"/>
+      <c r="L29" s="2"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="J31" s="2"/>
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="J33" s="2"/>
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="J34" s="2"/>
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="J36" s="2"/>
+      <c r="L36" s="2"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="J37" s="2"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="J38" s="2"/>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="J39" s="2"/>
+      <c r="L39" s="2"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="J41" s="2"/>
+      <c r="L41" s="2"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="J43" s="2"/>
+      <c r="L43" s="2"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="J44" s="2"/>
+      <c r="L44" s="2"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="J46" s="2"/>
+      <c r="L46" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/params.xlsx
+++ b/params.xlsx
@@ -441,8 +441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -531,7 +531,7 @@
         <v>40</v>
       </c>
       <c r="I2">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="J2">
         <v>0</v>

--- a/params.xlsx
+++ b/params.xlsx
@@ -441,8 +441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N2" sqref="A2:N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,94 +505,17 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>45</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>80</v>
-      </c>
-      <c r="D2">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2">
-        <f>4/3</f>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="F2">
-        <v>10</v>
-      </c>
-      <c r="G2">
-        <v>60</v>
-      </c>
-      <c r="H2">
-        <v>40</v>
-      </c>
-      <c r="I2">
-        <v>60</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>60</v>
-      </c>
-      <c r="L2">
-        <v>0.5</v>
-      </c>
-      <c r="M2" s="2">
-        <v>80</v>
-      </c>
-      <c r="N2">
-        <v>40</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="E2" s="2"/>
+      <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>46</v>
-      </c>
-      <c r="B3">
-        <v>0.5</v>
-      </c>
-      <c r="C3">
-        <v>50</v>
-      </c>
-      <c r="D3">
-        <v>15</v>
-      </c>
-      <c r="E3" s="2">
-        <f>3/4</f>
-        <v>0.75</v>
-      </c>
-      <c r="F3">
-        <v>20</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3" s="2">
-        <v>-60</v>
-      </c>
-      <c r="I3" s="2">
-        <v>40</v>
-      </c>
-      <c r="J3" s="2">
-        <v>100</v>
-      </c>
-      <c r="K3">
-        <v>120</v>
-      </c>
-      <c r="L3" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="M3">
-        <v>80</v>
-      </c>
-      <c r="N3">
-        <v>40</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="E3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="L3" s="2"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
